--- a/我的燃尽图.xlsx
+++ b/我的燃尽图.xlsx
@@ -389,6 +389,12 @@
                 <c:pt idx="1">
                   <c:v>0.95</c:v>
                 </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>86</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -398,13 +404,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="134004096"/>
-        <c:axId val="135926912"/>
+        <c:axId val="138730496"/>
+        <c:axId val="139010816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="134004096"/>
+        <c:axId val="138730496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,14 +449,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135926912"/>
+        <c:crossAx val="139010816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="135926912"/>
+        <c:axId val="139010816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -502,7 +507,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134004096"/>
+        <c:crossAx val="138730496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -575,7 +580,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1157,7 +1162,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1493,7 +1498,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1538,6 +1543,9 @@
       <c r="B4" s="2">
         <v>0.85714279999999998</v>
       </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -1545,6 +1553,9 @@
       </c>
       <c r="B5" s="3">
         <v>0.72</v>
+      </c>
+      <c r="C5">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/我的燃尽图.xlsx
+++ b/我的燃尽图.xlsx
@@ -33,12 +33,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>理想工作量%</t>
+    <t>实际工作量%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际工作量%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>理想工作量%</t>
   </si>
 </sst>
 </file>
@@ -247,46 +246,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92857140000000005</c:v>
+                  <c:v>0.92859999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0%">
-                  <c:v>0.85714279999999998</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72</c:v>
+                  <c:v>0.78569999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0%">
-                  <c:v>0.65</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64285700000000001</c:v>
+                  <c:v>0.64290000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0%">
-                  <c:v>0.52</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0%">
-                  <c:v>0.4</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35714259999999998</c:v>
+                  <c:v>0.35709999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0%">
-                  <c:v>0.2</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.21429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0%">
-                  <c:v>0.05</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1428200000001094E-2</c:v>
+                  <c:v>7.1400000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0%">
-                  <c:v>-4.00000000011502E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,11 +388,17 @@
                 <c:pt idx="1">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>86</c:v>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,11 +410,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138730496"/>
-        <c:axId val="139010816"/>
+        <c:axId val="146265984"/>
+        <c:axId val="146267520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="138730496"/>
+        <c:axId val="146265984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,14 +454,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139010816"/>
+        <c:crossAx val="146267520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="139010816"/>
+        <c:axId val="146267520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -507,7 +512,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138730496"/>
+        <c:crossAx val="146265984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -580,7 +585,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1498,7 +1503,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1508,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1530,7 +1535,7 @@
         <v>44508</v>
       </c>
       <c r="B3" s="3">
-        <v>0.92857140000000005</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="C3" s="2">
         <v>0.95</v>
@@ -1541,10 +1546,10 @@
         <v>44509</v>
       </c>
       <c r="B4" s="2">
-        <v>0.85714279999999998</v>
-      </c>
-      <c r="C4">
-        <v>90</v>
+        <v>0.86</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1552,10 +1557,10 @@
         <v>44510</v>
       </c>
       <c r="B5" s="3">
-        <v>0.72</v>
-      </c>
-      <c r="C5">
-        <v>86</v>
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1563,7 +1568,10 @@
         <v>44511</v>
       </c>
       <c r="B6" s="2">
-        <v>0.65</v>
+        <v>0.71</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1571,7 +1579,10 @@
         <v>44512</v>
       </c>
       <c r="B7" s="3">
-        <v>0.64285700000000001</v>
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1579,7 +1590,7 @@
         <v>44513</v>
       </c>
       <c r="B8" s="2">
-        <v>0.52</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1587,7 +1598,7 @@
         <v>44514</v>
       </c>
       <c r="B9" s="3">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1595,7 +1606,7 @@
         <v>44515</v>
       </c>
       <c r="B10" s="2">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1603,7 +1614,7 @@
         <v>44516</v>
       </c>
       <c r="B11" s="3">
-        <v>0.35714259999999998</v>
+        <v>0.35709999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1611,7 +1622,7 @@
         <v>44517</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1619,7 +1630,7 @@
         <v>44518</v>
       </c>
       <c r="B13" s="3">
-        <v>0.1</v>
+        <v>0.21429999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1627,7 +1638,7 @@
         <v>44519</v>
       </c>
       <c r="B14" s="2">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1635,7 +1646,7 @@
         <v>44520</v>
       </c>
       <c r="B15" s="3">
-        <v>7.1428200000001094E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1643,7 +1654,7 @@
         <v>44521</v>
       </c>
       <c r="B16" s="2">
-        <v>-4.00000000011502E-7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/我的燃尽图.xlsx
+++ b/我的燃尽图.xlsx
@@ -400,6 +400,12 @@
                 <c:pt idx="5">
                   <c:v>0.75</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -410,11 +416,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="146265984"/>
-        <c:axId val="146267520"/>
+        <c:axId val="80598912"/>
+        <c:axId val="80600448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="146265984"/>
+        <c:axId val="80598912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,14 +460,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146267520"/>
+        <c:crossAx val="80600448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="146267520"/>
+        <c:axId val="80600448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -512,7 +518,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146265984"/>
+        <c:crossAx val="80598912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -585,7 +591,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1167,7 +1173,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1503,7 +1509,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1592,12 +1598,18 @@
       <c r="B8" s="2">
         <v>0.56999999999999995</v>
       </c>
+      <c r="C8" s="2">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>44514</v>
       </c>
       <c r="B9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.5</v>
       </c>
     </row>

--- a/我的燃尽图.xlsx
+++ b/我的燃尽图.xlsx
@@ -406,6 +406,9 @@
                 <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -416,11 +419,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80598912"/>
-        <c:axId val="80600448"/>
+        <c:axId val="83408768"/>
+        <c:axId val="83410304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80598912"/>
+        <c:axId val="83408768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,14 +463,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80600448"/>
+        <c:crossAx val="83410304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80600448"/>
+        <c:axId val="83410304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -518,7 +521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80598912"/>
+        <c:crossAx val="83408768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -591,7 +594,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1173,7 +1176,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1509,7 +1512,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1619,6 +1622,9 @@
       </c>
       <c r="B10" s="2">
         <v>0.43</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:3">

--- a/我的燃尽图.xlsx
+++ b/我的燃尽图.xlsx
@@ -409,6 +409,15 @@
                 <c:pt idx="8">
                   <c:v>0.4</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -419,11 +428,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83408768"/>
-        <c:axId val="83410304"/>
+        <c:axId val="89446272"/>
+        <c:axId val="89447808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="83408768"/>
+        <c:axId val="89446272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,14 +472,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83410304"/>
+        <c:crossAx val="89447808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="83410304"/>
+        <c:axId val="89447808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -521,7 +530,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83408768"/>
+        <c:crossAx val="89446272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -594,7 +603,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1176,7 +1185,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1512,7 +1521,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1634,6 +1643,9 @@
       <c r="B11" s="3">
         <v>0.35709999999999997</v>
       </c>
+      <c r="C11" s="2">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
@@ -1642,6 +1654,9 @@
       <c r="B12" s="2">
         <v>0.28999999999999998</v>
       </c>
+      <c r="C12" s="2">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
@@ -1649,6 +1664,9 @@
       </c>
       <c r="B13" s="3">
         <v>0.21429999999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:3">

--- a/我的燃尽图.xlsx
+++ b/我的燃尽图.xlsx
@@ -184,107 +184,53 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44507</c:v>
+                  <c:v>44521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44508</c:v>
+                  <c:v>44522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44509</c:v>
+                  <c:v>44523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44510</c:v>
+                  <c:v>44524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44511</c:v>
+                  <c:v>44525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44513</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44514</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44515</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44516</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44517</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44518</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44519</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44520</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44521</c:v>
+                  <c:v>44526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="0%">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92859999999999998</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0%">
-                  <c:v>0.86</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78569999999999995</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0%">
-                  <c:v>0.71</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64290000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0%">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0%">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.35709999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0%">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.21429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0%">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.1400000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0%">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -324,99 +270,45 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44507</c:v>
+                  <c:v>44521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44508</c:v>
+                  <c:v>44522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44509</c:v>
+                  <c:v>44523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44510</c:v>
+                  <c:v>44524</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44511</c:v>
+                  <c:v>44525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44513</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44514</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44515</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44516</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44517</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44518</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44519</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44520</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44521</c:v>
+                  <c:v>44526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,11 +320,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89446272"/>
-        <c:axId val="89447808"/>
+        <c:axId val="148242816"/>
+        <c:axId val="148244352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89446272"/>
+        <c:axId val="148242816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,14 +364,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89447808"/>
+        <c:crossAx val="148244352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89447808"/>
+        <c:axId val="148244352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -530,7 +422,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89446272"/>
+        <c:crossAx val="148242816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -603,7 +495,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1172,20 +1064,20 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1518,13 +1410,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1539,7 +1434,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>44507</v>
+        <v>44521</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1550,148 +1445,52 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>44508</v>
+        <v>44522</v>
       </c>
       <c r="B3" s="3">
-        <v>0.92859999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>44509</v>
+        <v>44523</v>
       </c>
       <c r="B4" s="2">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="C4" s="2">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>44510</v>
+        <v>44524</v>
       </c>
       <c r="B5" s="3">
-        <v>0.78569999999999995</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.86</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>44511</v>
+        <v>44525</v>
       </c>
       <c r="B6" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.8</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>44512</v>
+        <v>44526</v>
       </c>
       <c r="B7" s="3">
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>44513</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>44514</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>44515</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>44516</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.21429999999999999</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>44520</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7.1400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>44521</v>
-      </c>
-      <c r="B16" s="2">
         <v>0</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/我的燃尽图.xlsx
+++ b/我的燃尽图.xlsx
@@ -310,6 +310,9 @@
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -320,11 +323,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="148242816"/>
-        <c:axId val="148244352"/>
+        <c:axId val="156107136"/>
+        <c:axId val="156108672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148242816"/>
+        <c:axId val="156107136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,14 +367,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148244352"/>
+        <c:crossAx val="156108672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148244352"/>
+        <c:axId val="156108672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -422,7 +425,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148242816"/>
+        <c:crossAx val="156107136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -495,7 +498,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1077,7 +1080,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1390,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1413,7 +1416,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1472,7 +1475,9 @@
       <c r="B5" s="3">
         <v>0.4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">

--- a/我的燃尽图.xlsx
+++ b/我的燃尽图.xlsx
@@ -313,6 +313,9 @@
                 <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -323,11 +326,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="156107136"/>
-        <c:axId val="156108672"/>
+        <c:axId val="76415360"/>
+        <c:axId val="76416896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="156107136"/>
+        <c:axId val="76415360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,14 +370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156108672"/>
+        <c:crossAx val="76416896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="156108672"/>
+        <c:axId val="76416896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -425,7 +428,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156107136"/>
+        <c:crossAx val="76415360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -498,7 +501,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1080,7 +1083,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1416,7 +1419,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1486,7 +1489,9 @@
       <c r="B6" s="2">
         <v>0.2</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">

--- a/我的燃尽图.xlsx
+++ b/我的燃尽图.xlsx
@@ -316,6 +316,9 @@
                 <c:pt idx="4">
                   <c:v>0.05</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -326,11 +329,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76415360"/>
-        <c:axId val="76416896"/>
+        <c:axId val="155152768"/>
+        <c:axId val="155154304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="76415360"/>
+        <c:axId val="155152768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,14 +373,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76416896"/>
+        <c:crossAx val="155154304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="76416896"/>
+        <c:axId val="155154304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -428,7 +431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76415360"/>
+        <c:crossAx val="155152768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -501,7 +504,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1083,7 +1086,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{257C65B9-C46A-4A48-9CFD-E8B39C27CEC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1419,7 +1422,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1500,7 +1503,9 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
